--- a/doc/conditions.xlsx
+++ b/doc/conditions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bench-dev\projects\BenchManager\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kit1bbh_d\Projects\VS\BenchManager\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Actions and Status" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="75">
   <si>
     <t>Cache</t>
   </si>
@@ -125,9 +125,6 @@
     <t>resource + cached</t>
   </si>
   <si>
-    <t>not installed</t>
-  </si>
-  <si>
     <t>installed</t>
   </si>
   <si>
@@ -246,12 +243,18 @@
   </si>
   <si>
     <t>App is deactivated, but cached.</t>
+  </si>
+  <si>
+    <t>can check install + not installed OR cannot check install + custom setup</t>
+  </si>
+  <si>
+    <t>can check install + installed OR cannot check install + custom remove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,6 +325,21 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -335,24 +353,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,7 +370,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A14:I38" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A14:I38" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
   <autoFilter ref="A14:I38"/>
   <sortState ref="A15:I38">
     <sortCondition ref="A15:A38"/>
@@ -384,7 +386,7 @@
     <tableColumn id="4" name="Activated"/>
     <tableColumn id="5" name="Required"/>
     <tableColumn id="2" name="Cache"/>
-    <tableColumn id="7" name="Status" dataDxfId="1"/>
+    <tableColumn id="7" name="Status" dataDxfId="0"/>
     <tableColumn id="8" name="Icon"/>
     <tableColumn id="9" name="Comment"/>
   </tableColumns>
@@ -691,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -754,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,7 +767,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -776,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -787,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -798,18 +800,18 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -820,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
@@ -881,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -907,13 +909,13 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -933,13 +935,13 @@
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -959,13 +961,13 @@
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -985,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1011,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1037,13 +1039,13 @@
         <v>17</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1092,13 +1094,13 @@
         <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1121,13 +1123,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
         <v>44</v>
       </c>
-      <c r="H25" t="s">
-        <v>45</v>
-      </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1150,13 +1152,13 @@
         <v>5</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
         <v>44</v>
       </c>
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1179,13 +1181,13 @@
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
         <v>44</v>
       </c>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1208,13 +1210,13 @@
         <v>5</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
         <v>44</v>
       </c>
-      <c r="H28" t="s">
-        <v>45</v>
-      </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1237,13 +1239,13 @@
         <v>2</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1266,13 +1268,13 @@
         <v>5</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1295,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1324,13 +1326,13 @@
         <v>5</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1356,10 +1358,10 @@
         <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1382,13 +1384,13 @@
         <v>5</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1414,10 +1416,10 @@
         <v>30</v>
       </c>
       <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
         <v>46</v>
-      </c>
-      <c r="I35" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1440,13 +1442,13 @@
         <v>5</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
         <v>48</v>
-      </c>
-      <c r="I36" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1472,10 +1474,10 @@
         <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1498,13 +1500,13 @@
         <v>5</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
         <v>54</v>
-      </c>
-      <c r="I38" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
